--- a/testTable.xlsx
+++ b/testTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>Адрес</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>19.07.2021</t>
+  </si>
+  <si>
+    <t>Èâàí Åâãåíüåâè÷</t>
+  </si>
+  <si>
+    <t>Ivan Evgenievich</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
@@ -894,6 +900,100 @@
       <c r="R9"/>
       <c r="S9"/>
     </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/testTable.xlsx
+++ b/testTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Адрес</t>
   </si>
@@ -76,34 +76,13 @@
     <t>ДАТА</t>
   </si>
   <si>
-    <t>18.07.2021</t>
-  </si>
-  <si>
-    <t>DEVELOPER</t>
-  </si>
-  <si>
-    <t>ул. Челябинская 3</t>
-  </si>
-  <si>
-    <t>ул. Северодвинская  д. 11 корп. 1</t>
-  </si>
-  <si>
-    <t>летчика бабушкина 37 корпус 1</t>
-  </si>
-  <si>
-    <t>– Минусинская 14</t>
-  </si>
-  <si>
-    <t>ул. Ивантеевская 15 к. 2</t>
-  </si>
-  <si>
     <t>19.07.2021</t>
   </si>
   <si>
-    <t>Èâàí Åâãåíüåâè÷</t>
-  </si>
-  <si>
-    <t>Ivan Evgenievich</t>
+    <t>[ERROR]id=266119069</t>
+  </si>
+  <si>
+    <t>Лазоревый пр 2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
@@ -551,7 +530,7 @@
         <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -569,7 +548,7 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="K2" t="n">
         <v>0.0</v>
@@ -592,13 +571,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -615,17 +594,15 @@
       <c r="I3" t="n">
         <v>0.0</v>
       </c>
-      <c r="J3" t="n">
-        <v>16.0</v>
-      </c>
+      <c r="J3"/>
       <c r="K3" t="n">
-        <v>0.0</v>
+        <v>864.0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0</v>
+        <v>52.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0</v>
+        <v>643.0</v>
       </c>
       <c r="N3"/>
       <c r="O3"/>
@@ -645,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
@@ -659,11 +636,9 @@
       <c r="H4" t="n">
         <v>0.0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="I4"/>
       <c r="J4" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="K4" t="n">
         <v>0.0</v>
@@ -686,13 +661,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>21.0</v>
+        <v>8.0</v>
       </c>
       <c r="E5" t="n">
         <v>0.0</v>
@@ -710,7 +685,7 @@
         <v>0.0</v>
       </c>
       <c r="J5" t="n">
-        <v>21.0</v>
+        <v>8.0</v>
       </c>
       <c r="K5" t="n">
         <v>0.0</v>
@@ -728,272 +703,6 @@
       <c r="R5"/>
       <c r="S5"/>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/testTable.xlsx
+++ b/testTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Адрес</t>
   </si>
@@ -76,13 +76,16 @@
     <t>ДАТА</t>
   </si>
   <si>
-    <t>19.07.2021</t>
+    <t>20.07.2021</t>
   </si>
   <si>
     <t>[ERROR]id=266119069</t>
   </si>
   <si>
-    <t>Лазоревый пр 2</t>
+    <t>летчика бабушкина 37 корпус 1</t>
+  </si>
+  <si>
+    <t>Оборонная 2</t>
   </si>
 </sst>
 </file>
@@ -428,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
@@ -530,7 +533,7 @@
         <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -548,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
       <c r="K2" t="n">
         <v>0.0</v>
@@ -577,7 +580,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -594,15 +597,17 @@
       <c r="I3" t="n">
         <v>0.0</v>
       </c>
-      <c r="J3"/>
+      <c r="J3" t="n">
+        <v>20.0</v>
+      </c>
       <c r="K3" t="n">
-        <v>864.0</v>
+        <v>0.0</v>
       </c>
       <c r="L3" t="n">
-        <v>52.0</v>
+        <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>643.0</v>
+        <v>0.0</v>
       </c>
       <c r="N3"/>
       <c r="O3"/>
@@ -616,13 +621,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>8.0</v>
+        <v>21.0</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
@@ -636,9 +641,11 @@
       <c r="H4" t="n">
         <v>0.0</v>
       </c>
-      <c r="I4"/>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
       <c r="J4" t="n">
-        <v>8.0</v>
+        <v>21.0</v>
       </c>
       <c r="K4" t="n">
         <v>0.0</v>
@@ -656,53 +663,6 @@
       <c r="R4"/>
       <c r="S4"/>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/testTable.xlsx
+++ b/testTable.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>ДАТА</t>
   </si>
@@ -88,6 +88,36 @@
   </si>
   <si>
     <t>276</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>123gfdsgv</t>
+  </si>
+  <si>
+    <t>285</t>
   </si>
 </sst>
 </file>
@@ -357,7 +387,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -497,6 +527,465 @@
         <v>24</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
